--- a/da-excel/Adventure Work Inventory.xlsx
+++ b/da-excel/Adventure Work Inventory.xlsx
@@ -207,12 +207,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -270,7 +276,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +314,25 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -5842,7 +5867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5889,81 +5914,80 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7">
-        <v>44584</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>44567</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>200</v>
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1120</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
-        <v>44584</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>44567</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="9">
-        <v>200</v>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1120</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
-        <f ca="1">TODAY()+17</f>
-        <v>45378</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>44399</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
-        <v>9.5</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2">
-        <v>360</v>
+        <v>860</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -5977,23 +6001,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7">
-        <f ca="1">TODAY()+17</f>
-        <v>45378</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>44399</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4">
-        <v>9.5</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
-        <v>360</v>
+        <v>860</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -6007,23 +6030,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7">
-        <f ca="1">TODAY()+2</f>
-        <v>45363</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>44479</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2">
-        <v>950</v>
+        <v>790</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -6037,23 +6059,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7">
-        <f ca="1">TODAY()+2</f>
-        <v>45363</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>44479</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2">
-        <v>950</v>
+        <v>790</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -6067,19 +6088,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
-        <v>44549</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
+        <f ca="1">TODAY()-3</f>
+        <v>45358</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
-        <v>14</v>
+        <v>21.5</v>
       </c>
       <c r="F8" s="2">
         <v>260</v>
@@ -6091,24 +6113,25 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7">
-        <v>44549</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
+        <f ca="1">TODAY()-3</f>
+        <v>45358</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4">
-        <v>14</v>
+        <v>21.5</v>
       </c>
       <c r="F9" s="2">
         <v>260</v>
@@ -6120,34 +6143,34 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7">
-        <f ca="1">TODAY()-8</f>
-        <v>45353</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
+        <f ca="1">TODAY()-50</f>
+        <v>45311</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4">
-        <v>21.05</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
-        <v>760</v>
+        <v>260</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -6155,29 +6178,29 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
-        <f ca="1">TODAY()-8</f>
-        <v>45353</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
+        <f ca="1">TODAY()-50</f>
+        <v>45311</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4">
-        <v>21.05</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>760</v>
+        <v>260</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
@@ -6185,60 +6208,60 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7">
-        <v>44563</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>44391</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4">
-        <v>21.35</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
-        <v>44563</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>44391</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4">
-        <v>21.35</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6246,20 +6269,19 @@
         <v>26</v>
       </c>
       <c r="B14" s="7">
-        <f ca="1">TODAY()-3</f>
-        <v>45358</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>44487</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4">
-        <v>21.5</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -6276,20 +6298,19 @@
         <v>26</v>
       </c>
       <c r="B15" s="7">
-        <f ca="1">TODAY()-3</f>
-        <v>45358</v>
+        <v>44487</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="4">
-        <v>21.5</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -6303,22 +6324,23 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
-        <v>44562</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
+        <f ca="1">TODAY()-45</f>
+        <v>45316</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4">
-        <v>22</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F16" s="2">
-        <v>530</v>
+        <v>140</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -6332,22 +6354,23 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7">
-        <v>44562</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
+        <f ca="1">TODAY()-45</f>
+        <v>45316</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>22</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F17" s="2">
-        <v>530</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -6361,28 +6384,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
-        <v>44557</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>44463</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4">
-        <v>23.25</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -6390,28 +6413,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
-        <v>44557</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>44463</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4">
-        <v>23.25</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -6419,28 +6442,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
-        <v>44593</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
+        <v>44455</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4">
-        <v>31</v>
+        <v>12.5</v>
       </c>
       <c r="F20" s="2">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -6448,28 +6471,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7">
-        <v>44593</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
+        <v>44455</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4">
-        <v>31</v>
+        <v>12.5</v>
       </c>
       <c r="F21" s="2">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
@@ -6477,28 +6500,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7">
-        <v>44545</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>16</v>
+        <v>44560</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4">
-        <v>31.23</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>150</v>
+        <v>1230</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
@@ -6506,28 +6529,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7">
-        <v>44545</v>
+        <v>44560</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E23" s="4">
-        <v>31.23</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>150</v>
+        <v>1230</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
@@ -6535,88 +6558,87 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7">
-        <f ca="1">TODAY()+40</f>
-        <v>45401</v>
+        <v>44589</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E24" s="4">
-        <v>32.799999999999997</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7">
-        <f ca="1">TODAY()+40</f>
-        <v>45401</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>32</v>
+        <v>44589</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4">
-        <v>32.799999999999997</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7">
-        <v>44487</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
+        <f ca="1">TODAY()-59</f>
+        <v>45302</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2">
-        <v>190</v>
+        <v>1010</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>15</v>
@@ -6624,28 +6646,29 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7">
-        <v>44487</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>35</v>
+        <f ca="1">TODAY()-59</f>
+        <v>45302</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>190</v>
+        <v>1010</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
@@ -6653,23 +6676,23 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7">
-        <f ca="1">TODAY()-45</f>
-        <v>45316</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>35</v>
+        <f ca="1">TODAY()+2</f>
+        <v>45363</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4">
-        <v>34.799999999999997</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2">
-        <v>140</v>
+        <v>950</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -6683,23 +6706,23 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7">
-        <f ca="1">TODAY()-45</f>
-        <v>45316</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
+        <f ca="1">TODAY()+2</f>
+        <v>45363</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4">
-        <v>34.799999999999997</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2">
-        <v>140</v>
+        <v>950</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -6713,28 +6736,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B30" s="7">
-        <v>44399</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
+        <v>44561</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E30" s="4">
-        <v>38</v>
+        <v>9.65</v>
       </c>
       <c r="F30" s="2">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>15</v>
@@ -6742,28 +6765,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B31" s="7">
-        <v>44399</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>27</v>
+        <v>44561</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4">
-        <v>38</v>
+        <v>9.65</v>
       </c>
       <c r="F31" s="2">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>15</v>
@@ -6771,80 +6794,80 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B32" s="7">
-        <v>44573</v>
+        <v>44407</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4">
-        <v>39</v>
+        <v>13.25</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33" s="7">
-        <v>44573</v>
+        <v>44407</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4">
-        <v>39</v>
+        <v>13.25</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B34" s="7">
-        <v>44535</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
+        <v>44574</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E34" s="4">
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="F34" s="2">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -6858,22 +6881,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B35" s="7">
-        <v>44535</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>38</v>
+        <v>44574</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E35" s="4">
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="F35" s="2">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -6890,19 +6913,19 @@
         <v>17</v>
       </c>
       <c r="B36" s="7">
-        <v>44579</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>30</v>
+        <v>44557</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="4">
-        <v>45.6</v>
+        <v>23.25</v>
       </c>
       <c r="F36" s="2">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -6911,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6919,19 +6942,19 @@
         <v>17</v>
       </c>
       <c r="B37" s="7">
-        <v>44579</v>
+        <v>44557</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="4">
-        <v>45.6</v>
+        <v>23.25</v>
       </c>
       <c r="F37" s="2">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -6940,27 +6963,27 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B38" s="7">
-        <v>44447</v>
+        <v>44593</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4">
-        <v>49.3</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -6974,22 +6997,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B39" s="7">
-        <v>44447</v>
+        <v>44593</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E39" s="4">
-        <v>49.3</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -7003,22 +7026,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B40" s="7">
-        <v>44479</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
+        <v>44579</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E40" s="4">
-        <v>55</v>
+        <v>45.6</v>
       </c>
       <c r="F40" s="2">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -7027,27 +7050,27 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B41" s="7">
-        <v>44479</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+        <v>44579</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E41" s="4">
-        <v>55</v>
+        <v>45.6</v>
       </c>
       <c r="F41" s="2">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -7056,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7064,25 +7087,25 @@
         <v>17</v>
       </c>
       <c r="B42" s="7">
-        <v>44574</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>20</v>
+        <v>44556</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="4">
-        <v>62.5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
@@ -7093,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="7">
-        <v>44574</v>
+        <v>44556</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>18</v>
@@ -7102,16 +7125,16 @@
         <v>19</v>
       </c>
       <c r="E43" s="4">
-        <v>62.5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>15</v>
@@ -7119,28 +7142,29 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B44" s="7">
-        <v>44587</v>
+        <f ca="1">TODAY()+7</f>
+        <v>45368</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E44" s="4">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>15</v>
@@ -7148,28 +7172,29 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B45" s="7">
-        <v>44587</v>
+        <f ca="1">TODAY()+7</f>
+        <v>45368</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E45" s="4">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
@@ -7177,118 +7202,118 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B46" s="7">
-        <v>44592</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>36</v>
+        <v>44527</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E46" s="4">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F46" s="2">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B47" s="7">
-        <v>44592</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>36</v>
+        <v>44527</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E47" s="4">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B48" s="7">
-        <v>44580</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>37</v>
+        <v>44590</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E48" s="4">
-        <v>123.79</v>
+        <v>26</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B49" s="7">
-        <v>44580</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>36</v>
+        <v>44590</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E49" s="4">
-        <v>123.79</v>
+        <v>26</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7296,25 +7321,25 @@
         <v>17</v>
       </c>
       <c r="B50" s="7">
-        <v>44556</v>
+        <v>44566</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="4">
-        <v>6</v>
+        <v>25.89</v>
       </c>
       <c r="F50" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>15</v>
@@ -7325,25 +7350,25 @@
         <v>17</v>
       </c>
       <c r="B51" s="7">
-        <v>44556</v>
+        <v>44566</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="4">
-        <v>6</v>
+        <v>25.89</v>
       </c>
       <c r="F51" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>15</v>
@@ -7351,28 +7376,29 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B52" s="7">
-        <v>44586</v>
+        <f ca="1">TODAY()+1</f>
+        <v>45362</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E52" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F52" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H52" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>15</v>
@@ -7380,28 +7406,29 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B53" s="7">
-        <v>44586</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>10</v>
+        <f ca="1">TODAY()+1</f>
+        <v>45362</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E53" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F53" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H53" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>15</v>
@@ -7409,25 +7436,26 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B54" s="7">
-        <v>44585</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>25</v>
+        <f ca="1">TODAY()-10</f>
+        <v>45351</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
-      <c r="F54" s="9">
-        <v>30</v>
+      <c r="F54" s="2">
+        <v>40</v>
       </c>
       <c r="G54" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2">
         <v>5</v>
@@ -7438,25 +7466,26 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B55" s="7">
-        <v>44585</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>38</v>
+        <f ca="1">TODAY()-10</f>
+        <v>45351</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E55" s="4">
         <v>10</v>
       </c>
-      <c r="F55" s="9">
-        <v>30</v>
+      <c r="F55" s="2">
+        <v>40</v>
       </c>
       <c r="G55" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2">
         <v>5</v>
@@ -7467,29 +7496,29 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B56" s="7">
-        <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <f ca="1">TODAY()+5</f>
+        <v>45366</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E56" s="4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2">
-        <v>40</v>
+        <v>1150</v>
       </c>
       <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <v>20</v>
-      </c>
-      <c r="H56" s="2">
-        <v>5</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>15</v>
@@ -7497,29 +7526,29 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B57" s="7">
-        <f ca="1">TODAY()-10</f>
-        <v>45351</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>30</v>
+        <f ca="1">TODAY()+5</f>
+        <v>45366</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E57" s="4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2">
-        <v>40</v>
+        <v>1150</v>
       </c>
       <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
         <v>20</v>
-      </c>
-      <c r="H57" s="2">
-        <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>15</v>
@@ -7527,88 +7556,87 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B58" s="7">
-        <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>44592</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E58" s="4">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F58" s="2">
-        <v>1010</v>
+        <v>290</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B59" s="7">
-        <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>44592</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E59" s="4">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2">
-        <v>1010</v>
+        <v>290</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B60" s="7">
-        <v>44558</v>
+        <f ca="1">TODAY()+14</f>
+        <v>45375</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E60" s="4">
-        <v>15.5</v>
+        <v>7.45</v>
       </c>
       <c r="F60" s="2">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>15</v>
@@ -7616,28 +7644,29 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B61" s="7">
-        <v>44558</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>13</v>
+        <f ca="1">TODAY()+14</f>
+        <v>45375</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E61" s="4">
-        <v>15.5</v>
+        <v>7.45</v>
       </c>
       <c r="F61" s="2">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
@@ -7645,118 +7674,120 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B62" s="7">
-        <v>44359</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>25</v>
+        <f ca="1">TODAY()+40</f>
+        <v>45401</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E62" s="4">
-        <v>18</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F62" s="2">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B63" s="7">
-        <v>44359</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>38</v>
+        <f ca="1">TODAY()+40</f>
+        <v>45401</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E63" s="4">
-        <v>18</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F63" s="2">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B64" s="7">
-        <v>44575</v>
+        <v>44580</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E64" s="4">
-        <v>43.9</v>
+        <v>123.79</v>
       </c>
       <c r="F64" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B65" s="7">
-        <v>44575</v>
+        <v>44580</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E65" s="4">
-        <v>43.9</v>
+        <v>123.79</v>
       </c>
       <c r="F65" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,85 +7795,84 @@
         <v>31</v>
       </c>
       <c r="B66" s="7">
-        <f ca="1">TODAY()+14</f>
-        <v>45375</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>39</v>
+        <v>44573</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="4">
-        <v>7.45</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="7">
-        <f ca="1">TODAY()+14</f>
-        <v>45375</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="B67" s="16">
+        <v>44573</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="4">
-        <v>7.45</v>
-      </c>
-      <c r="F67" s="2">
-        <v>210</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>10</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>15</v>
+      <c r="E67" s="17">
+        <v>39</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+      <c r="H67" s="18">
+        <v>0</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B68" s="7">
-        <v>44561</v>
+        <f ca="1">TODAY()-1</f>
+        <v>45360</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E68" s="4">
-        <v>9.65</v>
+        <v>7.75</v>
       </c>
       <c r="F68" s="2">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>15</v>
@@ -7850,28 +7880,29 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B69" s="7">
-        <v>44561</v>
+        <f ca="1">TODAY()-1</f>
+        <v>45360</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E69" s="4">
-        <v>9.65</v>
+        <v>7.75</v>
       </c>
       <c r="F69" s="2">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>15</v>
@@ -7882,2172 +7913,2166 @@
         <v>9</v>
       </c>
       <c r="B70" s="7">
+        <v>44439</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1130</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>25</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="7">
+        <v>44439</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1130</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>25</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="7">
+        <v>44367</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1110</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="7">
+        <v>44367</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="4">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1110</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="7">
+        <f ca="1">TODAY()-8</f>
+        <v>45353</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4">
+        <v>21.05</v>
+      </c>
+      <c r="F74" s="2">
+        <v>760</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="7">
+        <f ca="1">TODAY()-8</f>
+        <v>45353</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4">
+        <v>21.05</v>
+      </c>
+      <c r="F75" s="2">
+        <v>760</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="7">
+        <v>44544</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5">
+        <v>14</v>
+      </c>
+      <c r="F76" s="21">
+        <v>760</v>
+      </c>
+      <c r="G76" s="21">
+        <v>0</v>
+      </c>
+      <c r="H76" s="21">
+        <v>30</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="7">
+        <v>44544</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4">
+        <v>14</v>
+      </c>
+      <c r="F77" s="2">
+        <v>760</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="7">
+        <v>44359</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2">
+        <v>690</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>5</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="7">
+        <v>44359</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="4">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2">
+        <v>690</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>5</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="7">
+        <f ca="1">TODAY()+8</f>
+        <v>45369</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4">
+        <v>16.25</v>
+      </c>
+      <c r="F80" s="2">
+        <v>650</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="7">
+        <f ca="1">TODAY()+8</f>
+        <v>45369</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4">
+        <v>16.25</v>
+      </c>
+      <c r="F81" s="2">
+        <v>650</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="7">
+        <f ca="1">TODAY()-34</f>
+        <v>45327</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4">
+        <v>18</v>
+      </c>
+      <c r="F82" s="2">
+        <v>570</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="7">
+        <f ca="1">TODAY()-34</f>
+        <v>45327</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="4">
+        <v>18</v>
+      </c>
+      <c r="F83" s="2">
+        <v>570</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="7">
+        <v>44562</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4">
+        <v>22</v>
+      </c>
+      <c r="F84" s="2">
+        <v>530</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="7">
+        <v>44562</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="4">
+        <v>22</v>
+      </c>
+      <c r="F85" s="2">
+        <v>530</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7">
         <f ca="1">TODAY()-32</f>
         <v>45329</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="C86" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="2">
+      <c r="D86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2">
         <v>520</v>
       </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
         <v>10</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="I86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="7">
         <f ca="1">TODAY()-32</f>
         <v>45329</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C87" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="4">
         <v>14</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="F87" s="2">
+        <v>520</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7">
+        <v>44543</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F88" s="9">
+        <v>490</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7">
+        <v>44543</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F89" s="9">
+        <v>490</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7">
+        <v>44587</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="4">
+        <v>81</v>
+      </c>
+      <c r="F90" s="2">
+        <v>400</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7">
+        <v>44587</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4">
+        <v>81</v>
+      </c>
+      <c r="F91" s="2">
+        <v>400</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="7">
+        <v>44558</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F92" s="2">
+        <v>390</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>5</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7">
+        <v>44558</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F93" s="2">
+        <v>390</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>5</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="7">
+        <v>44415</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="2">
-        <v>520</v>
-      </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="D94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4">
+        <v>18</v>
+      </c>
+      <c r="F94" s="2">
+        <v>390</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
         <v>10</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="7">
+      <c r="I94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="7">
+        <v>44415</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4">
+        <v>18</v>
+      </c>
+      <c r="F95" s="2">
+        <v>390</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="7">
+        <f ca="1">TODAY()+17</f>
+        <v>45378</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>360</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="7">
+        <f ca="1">TODAY()+17</f>
+        <v>45378</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F97" s="2">
+        <v>360</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="7">
+        <f ca="1">TODAY()-9</f>
+        <v>45352</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4">
+        <v>13</v>
+      </c>
+      <c r="F98" s="2">
+        <v>320</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="7">
+        <f ca="1">TODAY()-9</f>
+        <v>45352</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="4">
+        <v>13</v>
+      </c>
+      <c r="F99" s="2">
+        <v>320</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="7">
         <v>44572</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4">
         <v>17.45</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F100" s="2">
         <v>290</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
         <v>10</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="I100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="7">
         <v>44572</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C101" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="D101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4">
         <v>17.45</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F101" s="2">
         <v>290</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
         <v>10</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="7">
-        <v>44415</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="I101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="7">
+        <v>44551</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4">
+        <v>19.45</v>
+      </c>
+      <c r="F102" s="2">
+        <v>270</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>15</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="7">
+        <v>44551</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4">
+        <v>19.45</v>
+      </c>
+      <c r="F103" s="2">
+        <v>270</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="7">
+        <v>44586</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F104" s="2">
+        <v>250</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>5</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="7">
+        <v>44586</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F105" s="2">
+        <v>250</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>5</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="7">
+        <v>44575</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F106" s="2">
+        <v>240</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>5</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="7">
+        <v>44575</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F107" s="2">
+        <v>240</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>5</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="7">
+        <v>44584</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F108" s="9">
+        <v>200</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="7">
+        <v>44584</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F109" s="9">
+        <v>200</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="7">
+        <v>44375</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="4">
+        <v>18</v>
+      </c>
+      <c r="F110" s="2">
+        <v>200</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="7">
+        <v>44375</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="4">
+        <v>18</v>
+      </c>
+      <c r="F111" s="2">
+        <v>200</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>15</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="7">
+        <v>44550</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="4">
+        <v>46</v>
+      </c>
+      <c r="F112" s="2">
+        <v>170</v>
+      </c>
+      <c r="G112" s="2">
+        <v>10</v>
+      </c>
+      <c r="H112" s="2">
         <v>25</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="4">
-        <v>18</v>
-      </c>
-      <c r="F74" s="2">
-        <v>390</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="I112" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="7">
+        <v>44550</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="7">
-        <v>44415</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="4">
+        <v>46</v>
+      </c>
+      <c r="F113" s="2">
+        <v>170</v>
+      </c>
+      <c r="G113" s="2">
+        <v>10</v>
+      </c>
+      <c r="H113" s="2">
+        <v>25</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="7">
+        <v>44447</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="4">
-        <v>18</v>
-      </c>
-      <c r="F75" s="2">
-        <v>390</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
+      <c r="D114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="4">
+        <v>49.3</v>
+      </c>
+      <c r="F114" s="2">
+        <v>170</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="7">
+        <v>44447</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="4">
+        <v>49.3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>170</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="7">
+        <v>44423</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="4">
+        <v>19</v>
+      </c>
+      <c r="F116" s="2">
+        <v>170</v>
+      </c>
+      <c r="G116" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" s="2">
+        <v>25</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="7">
+        <v>44423</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="4">
+        <v>19</v>
+      </c>
+      <c r="F117" s="2">
+        <v>170</v>
+      </c>
+      <c r="G117" s="2">
+        <v>40</v>
+      </c>
+      <c r="H117" s="2">
+        <v>25</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="7">
+        <v>44327</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="4">
+        <v>263.5</v>
+      </c>
+      <c r="F118" s="2">
+        <v>170</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="7">
+        <v>44327</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="4">
+        <v>263.5</v>
+      </c>
+      <c r="F119" s="2">
+        <v>170</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="7">
+        <f ca="1">TODAY()+32</f>
+        <v>45393</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="F120" s="2">
+        <v>150</v>
+      </c>
+      <c r="G120" s="2">
+        <v>70</v>
+      </c>
+      <c r="H120" s="2">
+        <v>25</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="7">
+        <f ca="1">TODAY()+32</f>
+        <v>45393</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="F121" s="2">
+        <v>150</v>
+      </c>
+      <c r="G121" s="2">
+        <v>70</v>
+      </c>
+      <c r="H121" s="2">
+        <v>25</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="7">
+        <f ca="1">TODAY()-40</f>
+        <v>45321</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="4">
+        <v>15</v>
+      </c>
+      <c r="F122" s="2">
+        <v>150</v>
+      </c>
+      <c r="G122" s="2">
         <v>10</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="7">
-        <v>44527</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="5">
+      <c r="H122" s="2">
         <v>30</v>
       </c>
-      <c r="F76" s="11">
+      <c r="I122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="7">
+        <f ca="1">TODAY()-40</f>
+        <v>45321</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4">
+        <v>15</v>
+      </c>
+      <c r="F123" s="2">
         <v>150</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="G123" s="2">
         <v>10</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="7">
-        <v>44527</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="7">
+        <v>44545</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="4">
+        <v>31.23</v>
+      </c>
+      <c r="F124" s="2">
+        <v>150</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="7">
+        <v>44545</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="4">
+        <v>31.23</v>
+      </c>
+      <c r="F125" s="2">
+        <v>150</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="7">
+        <v>44431</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4">
+        <v>10</v>
+      </c>
+      <c r="F126" s="2">
+        <v>130</v>
+      </c>
+      <c r="G126" s="2">
+        <v>70</v>
+      </c>
+      <c r="H126" s="2">
+        <v>25</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="7">
+        <v>44431</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="4">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2">
+        <v>130</v>
+      </c>
+      <c r="G127" s="2">
+        <v>70</v>
+      </c>
+      <c r="H127" s="2">
+        <v>25</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="7">
+        <v>44519</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="4">
+        <v>25</v>
+      </c>
+      <c r="F128" s="9">
+        <v>120</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>25</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="7">
+        <v>44519</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="4">
+        <v>25</v>
+      </c>
+      <c r="F129" s="9">
+        <v>120</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>25</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="7">
+        <f ca="1">TODAY()+2</f>
+        <v>45363</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="4">
         <v>20</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="4">
-        <v>30</v>
-      </c>
-      <c r="F77" s="2">
-        <v>150</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
+      <c r="F130" s="2">
+        <v>100</v>
+      </c>
+      <c r="G130" s="2">
+        <v>60</v>
+      </c>
+      <c r="H130" s="2">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="7">
+        <f ca="1">TODAY()+2</f>
+        <v>45363</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="7">
-        <f ca="1">TODAY()+7</f>
-        <v>45368</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="4">
-        <v>53</v>
-      </c>
-      <c r="F78" s="2">
-        <v>200</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>10</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="7">
-        <f ca="1">TODAY()+7</f>
-        <v>45368</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="4">
-        <v>53</v>
-      </c>
-      <c r="F79" s="2">
-        <v>200</v>
-      </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
-        <v>10</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="7">
-        <f ca="1">TODAY()+1</f>
-        <v>45362</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="D131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="4">
         <v>20</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F80" s="2">
-        <v>50</v>
-      </c>
-      <c r="G80" s="2">
-        <v>70</v>
-      </c>
-      <c r="H80" s="2">
-        <v>15</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="7">
-        <f ca="1">TODAY()+1</f>
-        <v>45362</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F81" s="2">
-        <v>50</v>
-      </c>
-      <c r="G81" s="2">
-        <v>70</v>
-      </c>
-      <c r="H81" s="2">
-        <v>15</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="7">
+      <c r="F131" s="2">
+        <v>100</v>
+      </c>
+      <c r="G131" s="2">
+        <v>60</v>
+      </c>
+      <c r="H131" s="2">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="7">
         <f ca="1">TODAY()-10</f>
         <v>45351</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="4">
         <v>12.5</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F132" s="2">
         <v>60</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G132" s="2">
         <v>10</v>
       </c>
-      <c r="H82" s="2">
-        <v>15</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="7">
+      <c r="H132" s="2">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="7">
         <f ca="1">TODAY()-10</f>
         <v>45351</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="C133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4">
         <v>12.5</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F133" s="2">
         <v>60</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G133" s="2">
         <v>10</v>
       </c>
-      <c r="H83" s="2">
-        <v>15</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="7">
-        <f ca="1">TODAY()-9</f>
-        <v>45352</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4">
-        <v>13</v>
-      </c>
-      <c r="F84" s="2">
-        <v>320</v>
-      </c>
-      <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>15</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="7">
-        <f ca="1">TODAY()-9</f>
-        <v>45352</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="4">
-        <v>13</v>
-      </c>
-      <c r="F85" s="2">
-        <v>320</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>15</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="7">
-        <v>44367</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="4">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1110</v>
-      </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>15</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="7">
-        <v>44367</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="4">
-        <v>14</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1110</v>
-      </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2">
-        <v>15</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="7">
-        <v>44375</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="4">
-        <v>18</v>
-      </c>
-      <c r="F88" s="2">
-        <v>200</v>
-      </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>15</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="7">
-        <v>44375</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="4">
-        <v>18</v>
-      </c>
-      <c r="F89" s="2">
-        <v>200</v>
-      </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>15</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="7">
-        <v>44551</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="4">
-        <v>19.45</v>
-      </c>
-      <c r="F90" s="2">
-        <v>270</v>
-      </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>15</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="7">
-        <v>44551</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="4">
-        <v>19.45</v>
-      </c>
-      <c r="F91" s="2">
-        <v>270</v>
-      </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>15</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="7">
-        <f ca="1">TODAY()+2</f>
-        <v>45363</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="H133" s="2">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="7">
+        <v>44535</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4">
-        <v>20</v>
-      </c>
-      <c r="F92" s="2">
-        <v>100</v>
-      </c>
-      <c r="G92" s="2">
+      <c r="D134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="4">
+        <v>40</v>
+      </c>
+      <c r="F134" s="2">
         <v>60</v>
       </c>
-      <c r="H92" s="2">
-        <v>15</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="7">
-        <f ca="1">TODAY()+2</f>
-        <v>45363</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="4">
-        <v>20</v>
-      </c>
-      <c r="F93" s="2">
-        <v>100</v>
-      </c>
-      <c r="G93" s="2">
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="7">
+        <v>44535</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="4">
+        <v>40</v>
+      </c>
+      <c r="F135" s="2">
         <v>60</v>
       </c>
-      <c r="H93" s="2">
-        <v>15</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" s="7">
-        <v>44566</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="4">
-        <v>25.89</v>
-      </c>
-      <c r="F94" s="2">
-        <v>100</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>15</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="7">
-        <v>44566</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="4">
-        <v>25.89</v>
-      </c>
-      <c r="F95" s="2">
-        <v>100</v>
-      </c>
-      <c r="G95" s="2">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <v>15</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="7">
-        <f ca="1">TODAY()-50</f>
-        <v>45311</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="4">
-        <v>36</v>
-      </c>
-      <c r="F96" s="2">
-        <v>260</v>
-      </c>
-      <c r="G96" s="2">
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <v>15</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="7">
-        <f ca="1">TODAY()-50</f>
-        <v>45311</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="4">
-        <v>36</v>
-      </c>
-      <c r="F97" s="2">
-        <v>260</v>
-      </c>
-      <c r="G97" s="2">
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <v>15</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="7">
-        <v>44327</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="4">
-        <v>263.5</v>
-      </c>
-      <c r="F98" s="2">
-        <v>170</v>
-      </c>
-      <c r="G98" s="2">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <v>15</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="7">
-        <v>44327</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="4">
-        <v>263.5</v>
-      </c>
-      <c r="F99" s="2">
-        <v>170</v>
-      </c>
-      <c r="G99" s="2">
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
-        <v>15</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="7">
-        <v>44567</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <v>20</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="7">
-        <v>44567</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G101" s="2">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <v>20</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0</v>
-      </c>
-      <c r="G102" s="2">
-        <v>70</v>
-      </c>
-      <c r="H102" s="2">
-        <v>20</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0</v>
-      </c>
-      <c r="G103" s="2">
-        <v>70</v>
-      </c>
-      <c r="H103" s="2">
-        <v>20</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="7">
-        <v>44407</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="F104" s="2">
-        <v>620</v>
-      </c>
-      <c r="G104" s="2">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
-        <v>20</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="7">
-        <v>44407</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="F105" s="2">
-        <v>620</v>
-      </c>
-      <c r="G105" s="2">
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <v>20</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="7">
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="7">
         <f ca="1">TODAY()-8</f>
         <v>45353</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="C136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="4">
         <v>17</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F136" s="2">
         <v>40</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G136" s="2">
         <v>100</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H136" s="2">
         <v>20</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="7">
+      <c r="I136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="7">
         <f ca="1">TODAY()-8</f>
         <v>45353</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="C137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="4">
         <v>17</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F137" s="2">
         <v>40</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G137" s="2">
         <v>100</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H137" s="2">
         <v>20</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="7">
-        <f ca="1">TODAY()-34</f>
-        <v>45327</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="I137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="7">
+        <v>44585</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="4">
-        <v>18</v>
-      </c>
-      <c r="F108" s="2">
-        <v>570</v>
-      </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <v>20</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="7">
-        <f ca="1">TODAY()-34</f>
-        <v>45327</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="4">
-        <v>18</v>
-      </c>
-      <c r="F109" s="2">
-        <v>570</v>
-      </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <v>20</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="7">
-        <v>44589</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="4">
+        <v>10</v>
+      </c>
+      <c r="F138" s="9">
         <v>30</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="4">
-        <v>19</v>
-      </c>
-      <c r="F110" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>20</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="7">
-        <v>44589</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="G138" s="2">
+        <v>40</v>
+      </c>
+      <c r="H138" s="2">
+        <v>5</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="7">
+        <v>44585</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="4">
+        <v>10</v>
+      </c>
+      <c r="F139" s="9">
         <v>30</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="4">
-        <v>19</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1120</v>
-      </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>20</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="G139" s="2">
+        <v>40</v>
+      </c>
+      <c r="H139" s="2">
+        <v>5</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="7">
+        <v>44563</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="7">
+        <v>44563</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="7">
-        <v>44571</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F112" s="2">
-        <v>360</v>
-      </c>
-      <c r="G112" s="2">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2">
-        <v>20</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="7">
-        <v>44571</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F113" s="2">
-        <v>360</v>
-      </c>
-      <c r="G113" s="2">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2">
-        <v>20</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B114" s="7">
-        <f ca="1">TODAY()+5</f>
-        <v>45366</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="4">
-        <v>24</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1150</v>
-      </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2">
-        <v>20</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" s="7">
-        <f ca="1">TODAY()+5</f>
-        <v>45366</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="4">
-        <v>24</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1150</v>
-      </c>
-      <c r="G115" s="2">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
-        <v>20</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="7">
+      <c r="B142" s="7">
         <f ca="1">TODAY()+39</f>
         <v>45400</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E142" s="4">
         <v>7</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F142" s="2">
         <v>380</v>
       </c>
-      <c r="G116" s="2">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2">
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
         <v>25</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="I142" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B143" s="7">
         <f ca="1">TODAY()+39</f>
         <v>45400</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E143" s="4">
         <v>7</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F143" s="2">
         <v>380</v>
       </c>
-      <c r="G117" s="2">
-        <v>0</v>
-      </c>
-      <c r="H117" s="2">
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
         <v>25</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="7">
-        <f ca="1">TODAY()-1</f>
-        <v>45360</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1250</v>
-      </c>
-      <c r="G118" s="2">
-        <v>0</v>
-      </c>
-      <c r="H118" s="2">
-        <v>25</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="7">
-        <f ca="1">TODAY()-1</f>
-        <v>45360</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F119" s="2">
-        <v>1250</v>
-      </c>
-      <c r="G119" s="2">
-        <v>0</v>
-      </c>
-      <c r="H119" s="2">
-        <v>25</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="7">
-        <v>44431</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="4">
-        <v>10</v>
-      </c>
-      <c r="F120" s="2">
-        <v>130</v>
-      </c>
-      <c r="G120" s="2">
-        <v>70</v>
-      </c>
-      <c r="H120" s="2">
-        <v>25</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="7">
-        <v>44431</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="4">
-        <v>10</v>
-      </c>
-      <c r="F121" s="2">
-        <v>130</v>
-      </c>
-      <c r="G121" s="2">
-        <v>70</v>
-      </c>
-      <c r="H121" s="2">
-        <v>25</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="7">
-        <f ca="1">TODAY()+32</f>
-        <v>45393</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="F122" s="2">
-        <v>150</v>
-      </c>
-      <c r="G122" s="2">
-        <v>70</v>
-      </c>
-      <c r="H122" s="2">
-        <v>25</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="7">
-        <f ca="1">TODAY()+32</f>
-        <v>45393</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="F123" s="2">
-        <v>150</v>
-      </c>
-      <c r="G123" s="2">
-        <v>70</v>
-      </c>
-      <c r="H123" s="2">
-        <v>25</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="7">
-        <v>44423</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="4">
-        <v>19</v>
-      </c>
-      <c r="F124" s="2">
-        <v>170</v>
-      </c>
-      <c r="G124" s="2">
-        <v>40</v>
-      </c>
-      <c r="H124" s="2">
-        <v>25</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="7">
-        <v>44423</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="4">
-        <v>19</v>
-      </c>
-      <c r="F125" s="2">
-        <v>170</v>
-      </c>
-      <c r="G125" s="2">
-        <v>40</v>
-      </c>
-      <c r="H125" s="2">
-        <v>25</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="7">
-        <v>44519</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="4">
-        <v>25</v>
-      </c>
-      <c r="F126" s="9">
-        <v>120</v>
-      </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2">
-        <v>25</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="7">
-        <v>44519</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="4">
-        <v>25</v>
-      </c>
-      <c r="F127" s="9">
-        <v>120</v>
-      </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>25</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B128" s="7">
-        <v>44590</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="4">
-        <v>26</v>
-      </c>
-      <c r="F128" s="2">
-        <v>110</v>
-      </c>
-      <c r="G128" s="2">
-        <v>50</v>
-      </c>
-      <c r="H128" s="2">
-        <v>25</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="7">
-        <v>44590</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="4">
-        <v>26</v>
-      </c>
-      <c r="F129" s="2">
-        <v>110</v>
-      </c>
-      <c r="G129" s="2">
-        <v>50</v>
-      </c>
-      <c r="H129" s="2">
-        <v>25</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="7">
-        <v>44439</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="F130" s="2">
-        <v>1130</v>
-      </c>
-      <c r="G130" s="2">
-        <v>0</v>
-      </c>
-      <c r="H130" s="2">
-        <v>25</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="7">
-        <v>44439</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="F131" s="2">
-        <v>1130</v>
-      </c>
-      <c r="G131" s="2">
-        <v>0</v>
-      </c>
-      <c r="H131" s="2">
-        <v>25</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="7">
-        <v>44463</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="4">
-        <v>32</v>
-      </c>
-      <c r="F132" s="2">
-        <v>90</v>
-      </c>
-      <c r="G132" s="2">
-        <v>40</v>
-      </c>
-      <c r="H132" s="2">
-        <v>25</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="7">
-        <v>44463</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="4">
-        <v>32</v>
-      </c>
-      <c r="F133" s="2">
-        <v>90</v>
-      </c>
-      <c r="G133" s="2">
-        <v>40</v>
-      </c>
-      <c r="H133" s="2">
-        <v>25</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="7">
-        <v>44550</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="4">
-        <v>46</v>
-      </c>
-      <c r="F134" s="2">
-        <v>170</v>
-      </c>
-      <c r="G134" s="2">
-        <v>10</v>
-      </c>
-      <c r="H134" s="2">
-        <v>25</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="7">
-        <v>44550</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="4">
-        <v>46</v>
-      </c>
-      <c r="F135" s="2">
-        <v>170</v>
-      </c>
-      <c r="G135" s="2">
-        <v>10</v>
-      </c>
-      <c r="H135" s="2">
-        <v>25</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="7">
-        <v>44544</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="4">
-        <v>14</v>
-      </c>
-      <c r="F136" s="2">
-        <v>760</v>
-      </c>
-      <c r="G136" s="2">
-        <v>0</v>
-      </c>
-      <c r="H136" s="2">
-        <v>30</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="7">
-        <v>44544</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="4">
-        <v>14</v>
-      </c>
-      <c r="F137" s="2">
-        <v>760</v>
-      </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
-      <c r="H137" s="2">
-        <v>30</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="7">
-        <f ca="1">TODAY()-40</f>
-        <v>45321</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="4">
-        <v>15</v>
-      </c>
-      <c r="F138" s="2">
-        <v>150</v>
-      </c>
-      <c r="G138" s="2">
-        <v>10</v>
-      </c>
-      <c r="H138" s="2">
-        <v>30</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="7">
-        <f ca="1">TODAY()-40</f>
-        <v>45321</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="4">
-        <v>15</v>
-      </c>
-      <c r="F139" s="2">
-        <v>150</v>
-      </c>
-      <c r="G139" s="2">
-        <v>10</v>
-      </c>
-      <c r="H139" s="2">
-        <v>30</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="7">
-        <f ca="1">TODAY()+8</f>
-        <v>45369</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="4">
-        <v>16.25</v>
-      </c>
-      <c r="F140" s="2">
-        <v>650</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>30</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="7">
-        <f ca="1">TODAY()+8</f>
-        <v>45369</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="4">
-        <v>16.25</v>
-      </c>
-      <c r="F141" s="2">
-        <v>650</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
-        <v>30</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" s="7">
-        <v>44560</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F142" s="2">
-        <v>1230</v>
-      </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
-      <c r="H142" s="2">
-        <v>30</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143" s="7">
-        <v>44560</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E143" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1230</v>
-      </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2">
-        <v>30</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>15</v>
@@ -10055,28 +10080,28 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B144" s="7">
-        <v>44391</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>34</v>
+        <v>44571</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E144" s="4">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="F144" s="2">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G144" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>15</v>
@@ -10084,28 +10109,28 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B145" s="7">
-        <v>44391</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>34</v>
+        <v>44571</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E145" s="4">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="F145" s="2">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G145" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H145" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>15</v>
@@ -10116,7 +10141,7 @@
         <v>21</v>
       </c>
       <c r="B146" s="7">
-        <v>44581</v>
+        <v>44549</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>24</v>
@@ -10125,19 +10150,19 @@
         <v>23</v>
       </c>
       <c r="E146" s="4">
-        <v>33.25</v>
+        <v>14</v>
       </c>
       <c r="F146" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="G146" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H146" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -10145,28 +10170,28 @@
         <v>21</v>
       </c>
       <c r="B147" s="7">
-        <v>44581</v>
+        <v>44549</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E147" s="4">
-        <v>33.25</v>
+        <v>14</v>
       </c>
       <c r="F147" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="G147" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H147" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -10174,22 +10199,22 @@
         <v>21</v>
       </c>
       <c r="B148" s="7">
-        <v>44570</v>
+        <v>44581</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E148" s="4">
-        <v>38</v>
+        <v>33.25</v>
       </c>
       <c r="F148" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G148" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H148" s="2">
         <v>30</v>
@@ -10203,22 +10228,22 @@
         <v>21</v>
       </c>
       <c r="B149" s="7">
-        <v>44570</v>
+        <v>44581</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E149" s="4">
-        <v>38</v>
+        <v>33.25</v>
       </c>
       <c r="F149" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G149" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H149" s="2">
         <v>30</v>
@@ -10229,25 +10254,25 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B150" s="7">
-        <v>44543</v>
+        <v>44570</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="4">
         <v>38</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="4">
-        <v>43.9</v>
-      </c>
-      <c r="F150" s="9">
-        <v>490</v>
+      <c r="F150" s="2">
+        <v>210</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H150" s="2">
         <v>30</v>
@@ -10258,49 +10283,49 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B151" s="7">
-        <v>44543</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>25</v>
+        <v>44570</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E151" s="5">
-        <v>43.9</v>
-      </c>
-      <c r="F151" s="13">
-        <v>490</v>
-      </c>
-      <c r="G151" s="11">
-        <v>0</v>
-      </c>
-      <c r="H151" s="11">
+        <v>38</v>
+      </c>
+      <c r="F151" s="21">
+        <v>210</v>
+      </c>
+      <c r="G151" s="21">
+        <v>10</v>
+      </c>
+      <c r="H151" s="21">
         <v>30</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="21" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I151">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10529,21 +10554,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10568,9 +10593,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/da-excel/Adventure Work Inventory.xlsx
+++ b/da-excel/Adventure Work Inventory.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="B4" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="B5" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B6" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>18</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="B7" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>20</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="B10" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -990,7 +990,7 @@
       </c>
       <c r="B11" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B14" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B15" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>29</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B24" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45401</v>
+        <v>45407</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B25" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45401</v>
+        <v>45407</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B28" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45316</v>
+        <v>45322</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>35</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B29" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45316</v>
+        <v>45322</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B56" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>30</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B57" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>30</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B58" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>18</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B59" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B66" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>39</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>32</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B70" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>16</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B71" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>14</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B78" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>30</v>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B79" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>18</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B80" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>20</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B81" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>18</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B82" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>14</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B83" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>13</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B84" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>13</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B85" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>14</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B92" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>38</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B93" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>10</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B96" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45311</v>
+        <v>45317</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>40</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B97" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45311</v>
+        <v>45317</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>40</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B106" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>25</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B107" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>16</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B108" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>38</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B109" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>13</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B114" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>32</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B115" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B116" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>22</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B117" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>41</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B118" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>38</v>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B119" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>10</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B122" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45393</v>
+        <v>45399</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>16</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B123" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45393</v>
+        <v>45399</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>25</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B138" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>13</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B139" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>10</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B140" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>13</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B141" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>13</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B8" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>27</v>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B9" s="7">
         <f ca="1">TODAY()-3</f>
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>29</v>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B10" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45311</v>
+        <v>45317</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>40</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B11" s="7">
         <f ca="1">TODAY()-50</f>
-        <v>45311</v>
+        <v>45317</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>40</v>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B16" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45316</v>
+        <v>45322</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>35</v>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B17" s="7">
         <f ca="1">TODAY()-45</f>
-        <v>45316</v>
+        <v>45322</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>35</v>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="B26" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>18</v>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B27" s="7">
         <f ca="1">TODAY()-59</f>
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>18</v>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B28" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>20</v>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="B29" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>18</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="B44" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B45" s="7">
         <f ca="1">TODAY()+7</f>
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>18</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B52" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B53" s="7">
         <f ca="1">TODAY()+1</f>
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>18</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="B54" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>30</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B55" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>30</v>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="B56" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>32</v>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="B57" s="7">
         <f ca="1">TODAY()+5</f>
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>36</v>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="B60" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>39</v>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="B61" s="7">
         <f ca="1">TODAY()+14</f>
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>32</v>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="B62" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45401</v>
+        <v>45407</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>32</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B63" s="7">
         <f ca="1">TODAY()+40</f>
-        <v>45401</v>
+        <v>45407</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>32</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B68" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>38</v>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B69" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>10</v>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="B74" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="B75" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>10</v>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B80" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>13</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B81" s="7">
         <f ca="1">TODAY()+8</f>
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>13</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B82" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>38</v>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B83" s="7">
         <f ca="1">TODAY()-34</f>
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>13</v>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B86" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>14</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B87" s="7">
         <f ca="1">TODAY()-32</f>
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>16</v>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B96" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="B97" s="7">
         <f ca="1">TODAY()+17</f>
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>16</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B98" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>13</v>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B99" s="7">
         <f ca="1">TODAY()-9</f>
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B120" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45393</v>
+        <v>45399</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>16</v>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="B121" s="7">
         <f ca="1">TODAY()+32</f>
-        <v>45393</v>
+        <v>45399</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>25</v>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B122" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>13</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="B123" s="7">
         <f ca="1">TODAY()-40</f>
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>10</v>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="B130" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>38</v>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="B131" s="7">
         <f ca="1">TODAY()+2</f>
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>10</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="B132" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>13</v>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="B133" s="7">
         <f ca="1">TODAY()-10</f>
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>14</v>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B136" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>16</v>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B137" s="7">
         <f ca="1">TODAY()-8</f>
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>25</v>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B142" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>22</v>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="B143" s="7">
         <f ca="1">TODAY()+39</f>
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>41</v>
@@ -10320,12 +10320,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10554,21 +10557,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10593,12 +10596,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3D3A20-D3C6-4966-9376-802ADF76D014}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE659C79-F521-42E0-A272-086F44ACC0D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>